--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -88,6 +88,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs!$A$1:$K$90</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatavase_1" vbProcedure="false">KPIs!$A$1:$K$85</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2924,24 +2926,24 @@
   </sheetPr>
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="H78" activeCellId="0" sqref="H78"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.5546558704453"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="161.858299595142"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="164.854251012146"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5508,9 +5510,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5610,10 +5612,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="27.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.3846153846154"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5903,14 +5905,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="46.3805668016194"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="69.0931174089069"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="57.417004048583"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -6041,14 +6043,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="95.6558704453441"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.3724696356275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.1295546558705"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.1295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.9878542510121"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6237,22 +6239,22 @@
   </sheetPr>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.8097165991903"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="118.793522267206"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="38.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.935222672065"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -6882,13 +6884,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.1295546558704"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.9878542510122"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.1295546558704"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="48.5263157894737"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="59.9878542510121"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="69.412955465587"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.3805668016194"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.0566801619433"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="70.7004048582996"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7012,8 +7014,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -7101,11 +7103,11 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -7290,13 +7292,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.5303643724696"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="122.866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8461538461538"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="125.008097165992"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7703,14 +7705,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="65.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.3076923076923"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="83.8744939271255"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7893,28 +7895,28 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="104.331983805668"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="106.263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="80.9838056680162"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.9473684210526"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="97.4777327935223"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.7408906882591"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.0607287449393"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="57.3076923076923"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.3805668016194"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3481781376518"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8076,9 +8078,7 @@
       <c r="Q3" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="R3" s="50" t="n">
-        <v>30</v>
-      </c>
+      <c r="R3" s="50"/>
       <c r="S3" s="49" t="s">
         <v>48</v>
       </c>
@@ -8130,9 +8130,7 @@
       <c r="Q4" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="R4" s="50" t="n">
-        <v>30</v>
-      </c>
+      <c r="R4" s="50"/>
       <c r="S4" s="49" t="s">
         <v>48</v>
       </c>
@@ -8393,14 +8391,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="26.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="48.2024291497976"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8533,11 +8531,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="65.2348178137652"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="96.5141700404858"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.2267206477733"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="140.538461538462"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="143.004048582996"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8805,14 +8803,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="76.3765182186235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="69.9473684210526"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="95.1214574898785"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="100.906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="35.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="77.6599190283401"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="71.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="96.834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="102.728744939271"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="57.8461538461538"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9394,20 +9392,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.0242914979757"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="70.9109311740891"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.0971659919028"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9730,19 +9728,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="85.0526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="86.4453441295547"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9948,13 +9946,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="80.3400809716599"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.7773279352227"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7327935222672"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>

--- a/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.3.xlsx
+++ b/Projects/CCNAYARMX/Data/CCNayarTemplate2020v0.9.3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -90,6 +90,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs!$A$1:$K$93</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -101,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1546" uniqueCount="429">
   <si>
     <t xml:space="preserve">KPI Number</t>
   </si>
@@ -1794,9 +1795,6 @@
     <t xml:space="preserve">Ahorrack,Frutales,Nutricion</t>
   </si>
   <si>
-    <t xml:space="preserve">Hidratación</t>
-  </si>
-  <si>
     <t xml:space="preserve">template_group</t>
   </si>
   <si>
@@ -2049,7 +2047,7 @@
     <numFmt numFmtId="165" formatCode="0%"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2200,12 +2198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="VAG Rounded Std Light"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="VAG Rounded Std Light"/>
       <family val="0"/>
       <charset val="1"/>
@@ -2425,7 +2417,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2750,15 +2742,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="5" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="5" borderId="7" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2806,7 +2794,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2822,19 +2810,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2935,15 +2923,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="164.854251012146"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="166.356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.6032388663968"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
@@ -5510,9 +5498,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="1017" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5605,17 +5593,17 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1019" min="7" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1020" style="0" width="8.78542510121457"/>
   </cols>
@@ -5840,7 +5828,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="n">
         <v>5</v>
       </c>
@@ -5850,8 +5838,8 @@
       <c r="C12" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="81" t="s">
-        <v>348</v>
+      <c r="D12" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>138</v>
@@ -5860,7 +5848,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="n">
         <v>2.5</v>
       </c>
@@ -5870,8 +5858,8 @@
       <c r="C13" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D13" s="81" t="s">
-        <v>348</v>
+      <c r="D13" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>138</v>
@@ -5905,14 +5893,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="69.0931174089069"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="47.0242914979757"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="57.417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="69.7327935222672"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="59" width="47.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="59" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="59" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="59" width="57.9514170040486"/>
     <col collapsed="false" hidden="false" max="1017" min="12" style="59" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1018" style="0" width="8.78542510121457"/>
   </cols>
@@ -5936,17 +5924,17 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="81" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="H1" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -5968,21 +5956,21 @@
       <c r="E2" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84" t="s">
         <v>237</v>
       </c>
       <c r="H2" s="0"/>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
+        <v>351</v>
+      </c>
+      <c r="K2" s="31" t="s">
         <v>352</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="96" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6001,21 +5989,21 @@
       <c r="E3" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="G3" s="83"/>
+      <c r="H3" s="85" t="s">
         <v>354</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="86" t="s">
+      <c r="I3" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="83" t="s">
         <v>355</v>
       </c>
-      <c r="I3" s="84" t="s">
-        <v>222</v>
-      </c>
-      <c r="J3" s="84" t="s">
-        <v>356</v>
-      </c>
       <c r="K3" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -6043,56 +6031,56 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7732793522267"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.3724696356275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.1295546558705"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="68.663967611336"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.9919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="10" min="9" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.9878542510121"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="57.5222672064777"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="H1" s="86" t="s">
         <v>357</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="I1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="J1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="K1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="L1" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="M1" s="87" t="s">
         <v>362</v>
-      </c>
-      <c r="M1" s="88" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6106,7 +6094,7 @@
         <v>195</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>196</v>
@@ -6121,7 +6109,7 @@
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -6137,7 +6125,7 @@
         <v>199</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>196</v>
@@ -6152,7 +6140,7 @@
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="L3" s="52"/>
       <c r="M3" s="52"/>
@@ -6168,7 +6156,7 @@
         <v>203</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>196</v>
@@ -6247,14 +6235,14 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="47.1336032388664"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="120.935222672065"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="122.008097165992"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="97.4777327935223"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6761133603239"/>
@@ -6275,22 +6263,22 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
@@ -6320,10 +6308,10 @@
         <v>14</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
@@ -6352,10 +6340,10 @@
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
@@ -6383,10 +6371,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -6414,13 +6402,13 @@
         <v>14</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="I5" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>379</v>
       </c>
       <c r="J5" s="10" t="n">
         <v>1</v>
@@ -6451,13 +6439,13 @@
         <v>14</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J6" s="10" t="n">
         <v>1</v>
@@ -6488,10 +6476,10 @@
         <v>14</v>
       </c>
       <c r="G7" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>381</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>382</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -6517,10 +6505,10 @@
         <v>14</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -6548,10 +6536,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -6579,10 +6567,10 @@
         <v>14</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -6610,10 +6598,10 @@
         <v>14</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -6639,10 +6627,10 @@
         <v>14</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H12" s="77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
@@ -6668,10 +6656,10 @@
         <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H13" s="77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
@@ -6697,10 +6685,10 @@
         <v>14</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H14" s="77" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
@@ -6709,31 +6697,31 @@
       <c r="M14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="89" t="n">
+      <c r="A15" s="88" t="n">
         <v>79</v>
       </c>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91" t="n">
+      <c r="B15" s="89"/>
+      <c r="C15" s="90" t="n">
         <v>110</v>
       </c>
-      <c r="D15" s="92" t="s">
+      <c r="D15" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="92"/>
+      <c r="F15" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="94" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" s="93" t="s">
-        <v>382</v>
-      </c>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
+      <c r="G15" s="93" t="s">
+        <v>389</v>
+      </c>
+      <c r="H15" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6814,48 +6802,48 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95" t="n">
+      <c r="A2" s="94" t="n">
         <v>35</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="F2" s="97" t="s">
+      <c r="F2" s="96" t="s">
+        <v>390</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>225</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>226</v>
+      </c>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="96" t="s">
+        <v>222</v>
+      </c>
+      <c r="L2" s="98" t="s">
+        <v>227</v>
+      </c>
+      <c r="M2" s="98" t="s">
+        <v>228</v>
+      </c>
+      <c r="N2" s="44" t="s">
         <v>391</v>
       </c>
-      <c r="G2" s="97" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="97"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="L2" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="M2" s="99" t="s">
-        <v>228</v>
-      </c>
-      <c r="N2" s="44" t="s">
-        <v>392</v>
-      </c>
-      <c r="O2" s="99" t="s">
+      <c r="O2" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="99" t="s">
+      <c r="P2" s="98" t="s">
         <v>15</v>
       </c>
     </row>
@@ -6884,13 +6872,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.9878542510122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.417004048583"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.9878542510121"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.3805668016194"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.0566801619433"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="70.7004048582996"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5222672064777"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="49.7044534412956"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="61.5951417004049"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="71.2348178137652"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
@@ -6905,7 +6893,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -6914,25 +6902,25 @@
         <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>400</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>9</v>
@@ -6958,22 +6946,22 @@
         <v>130</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>227</v>
@@ -7014,8 +7002,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.10526315789474"/>
   </cols>
@@ -7061,19 +7049,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="77" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="77" t="s">
         <v>407</v>
-      </c>
-      <c r="F2" s="77" t="s">
-        <v>408</v>
       </c>
       <c r="G2" s="77" t="s">
         <v>228</v>
       </c>
       <c r="H2" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="I2" s="77" t="s">
         <v>409</v>
-      </c>
-      <c r="I2" s="77" t="s">
-        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -7103,30 +7091,30 @@
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.5587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7125506072875"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="101" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="100"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="102"/>
+      <c r="C1" s="100" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="99"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="101"/>
     </row>
     <row r="2" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="52" t="n">
@@ -7136,7 +7124,7 @@
         <v>208</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D2" s="36"/>
       <c r="E2" s="36"/>
@@ -7219,7 +7207,7 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
-      <c r="H9" s="103"/>
+      <c r="H9" s="102"/>
       <c r="I9" s="36"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7263,7 +7251,7 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="103"/>
+      <c r="H13" s="102"/>
       <c r="I13" s="36"/>
     </row>
   </sheetData>
@@ -7292,43 +7280,43 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.3117408906883"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="41.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="125.008097165992"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="126.076923076923"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="212.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="100" t="s">
+      <c r="B1" s="99" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="100" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="99" t="s">
         <v>413</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="E1" s="101" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="F1" s="99" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="101" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="100" t="s">
-        <v>298</v>
-      </c>
-      <c r="G1" s="102" t="s">
+      <c r="H1" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="I1" s="101" t="s">
         <v>417</v>
-      </c>
-      <c r="I1" s="102" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,19 +7330,19 @@
         <v>209</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E2" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G2" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I2" s="36" t="n">
         <v>1</v>
@@ -7371,19 +7359,19 @@
         <v>209</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E3" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G3" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I3" s="36" t="n">
         <v>1</v>
@@ -7400,13 +7388,13 @@
         <v>209</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G4" s="36" t="n">
         <v>3</v>
@@ -7429,19 +7417,19 @@
         <v>209</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E5" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G5" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I5" s="36" t="n">
         <v>1</v>
@@ -7458,19 +7446,19 @@
         <v>209</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E6" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G6" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I6" s="36" t="n">
         <v>1</v>
@@ -7487,19 +7475,19 @@
         <v>209</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E7" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G7" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I7" s="36" t="n">
         <v>1</v>
@@ -7516,13 +7504,13 @@
         <v>209</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E8" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G8" s="36" t="n">
         <v>3</v>
@@ -7545,19 +7533,19 @@
         <v>209</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E9" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="103" t="s">
-        <v>429</v>
+      <c r="H9" s="102" t="s">
+        <v>428</v>
       </c>
       <c r="I9" s="36" t="n">
         <v>1</v>
@@ -7574,19 +7562,19 @@
         <v>209</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E10" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G10" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I10" s="36" t="n">
         <v>1</v>
@@ -7603,19 +7591,19 @@
         <v>209</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E11" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G11" s="36" t="n">
         <v>3</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I11" s="36" t="n">
         <v>1</v>
@@ -7632,13 +7620,13 @@
         <v>209</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E12" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G12" s="36" t="n">
         <v>3</v>
@@ -7661,19 +7649,19 @@
         <v>209</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13" s="36" t="n">
         <v>1</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G13" s="36" t="n">
         <v>3</v>
       </c>
-      <c r="H13" s="103" t="s">
-        <v>429</v>
+      <c r="H13" s="102" t="s">
+        <v>428</v>
       </c>
       <c r="I13" s="36" t="n">
         <v>1</v>
@@ -7705,14 +7693,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.3481781376518"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.3076923076923"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.9473684210526"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.3724696356275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="86.1255060728745"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="85.3724696356275"/>
-    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="12" min="8" style="0" width="86.1255060728745"/>
+    <col collapsed="false" hidden="false" max="15" min="13" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="9.10526315789474"/>
@@ -7895,28 +7883,28 @@
   </sheetPr>
   <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="106.263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="107.117408906883"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="82.4817813765182"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.1295546558705"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.1902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.5991902834008"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="83.1255060728745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.663967611336"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="100.048582995951"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="43.919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="58.8097165991903"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="18" min="17" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="9.10526315789474"/>
@@ -8391,14 +8379,14 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.46153846153846"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="48.2024291497976"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="48.6315789473684"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="9.10526315789474"/>
@@ -8531,11 +8519,11 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.3076923076923"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="98.2267206477733"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.9473684210526"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="99.085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="143.004048582996"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="144.287449392713"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
@@ -8803,14 +8791,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="59" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="77.6599190283401"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="96.834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="59" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="59" width="78.3036437246964"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="59" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="59" width="97.587044534413"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="59" width="103.692307692308"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="59" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="59" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="59" width="59.2348178137652"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="59" width="8.67611336032389"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="59" width="8.46153846153846"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="59" width="13.3886639676113"/>
@@ -9392,20 +9380,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.5627530364372"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.0890688259109"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.0971659919028"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.4534412955466"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="72.7327935222672"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.9230769230769"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1019" min="18" style="0" width="9.10526315789474"/>
@@ -9728,19 +9716,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0607287449393"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.4898785425101"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.0283400809717"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="86.4453441295547"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="87.1943319838057"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="9.10526315789474"/>
   </cols>
@@ -9939,20 +9927,20 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1255060728745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="81.7327935222672"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.8744939271255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.4817813765182"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
